--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444DCBC-C208-4747-9757-3A13C9CDE26C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00865D1-E975-4364-9EFE-AF59B3D70147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACC7127D-CA10-4415-AB1E-B8CD0C7426B6}"/>
   </bookViews>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>DEPARTURE_DATE</t>
-  </si>
-  <si>
-    <t>ARRIVAL_DATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Flight_From_Mexico_to_Canada</t>
   </si>
@@ -51,19 +42,43 @@
     <t>CANADA</t>
   </si>
   <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>October 20 2020</t>
   </si>
   <si>
-    <t>ADULTS</t>
-  </si>
-  <si>
-    <t>CHILDREN</t>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>November 21 2020</t>
+  </si>
+  <si>
+    <t>December 20 2021</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>arrival</t>
   </si>
 </sst>
 </file>
@@ -415,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA775C-E285-4133-A09C-4B3E0732D713}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,48 +449,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00865D1-E975-4364-9EFE-AF59B3D70147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5A91F-F8BA-4B2C-B9A2-11B5BD795BDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACC7127D-CA10-4415-AB1E-B8CD0C7426B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Flight_From_Mexico_to_Canada</t>
   </si>
@@ -79,16 +79,40 @@
   </si>
   <si>
     <t>arrival</t>
+  </si>
+  <si>
+    <t>TEST 3</t>
+  </si>
+  <si>
+    <t>November 21 2021</t>
+  </si>
+  <si>
+    <t>December 20 2022</t>
+  </si>
+  <si>
+    <t>TEST 4</t>
+  </si>
+  <si>
+    <t>November 21 2022</t>
+  </si>
+  <si>
+    <t>December 20 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA775C-E285-4133-A09C-4B3E0732D713}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +540,100 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5A91F-F8BA-4B2C-B9A2-11B5BD795BDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44262D-A29D-49DC-8BE0-AA217C193418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACC7127D-CA10-4415-AB1E-B8CD0C7426B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Flight_From_Mexico_to_Canada</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>December 20 2023</t>
+  </si>
+  <si>
+    <t>Flight_Test_Singleton</t>
+  </si>
+  <si>
+    <t>Flight_Second_Test</t>
   </si>
 </sst>
 </file>
@@ -454,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA775C-E285-4133-A09C-4B3E0732D713}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
@@ -632,6 +638,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44262D-A29D-49DC-8BE0-AA217C193418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95A458-48E6-40DF-A760-658141830EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACC7127D-CA10-4415-AB1E-B8CD0C7426B6}"/>
   </bookViews>
@@ -31,35 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
-  <si>
-    <t>Flight_From_Mexico_to_Canada</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>October 20 2020</t>
   </si>
   <si>
-    <t>TEST 2</t>
-  </si>
-  <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>November 21 2020</t>
-  </si>
-  <si>
-    <t>December 20 2021</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
@@ -81,28 +57,31 @@
     <t>arrival</t>
   </si>
   <si>
-    <t>TEST 3</t>
-  </si>
-  <si>
-    <t>November 21 2021</t>
-  </si>
-  <si>
-    <t>December 20 2022</t>
-  </si>
-  <si>
-    <t>TEST 4</t>
-  </si>
-  <si>
-    <t>November 21 2022</t>
-  </si>
-  <si>
-    <t>December 20 2023</t>
-  </si>
-  <si>
-    <t>Flight_Test_Singleton</t>
-  </si>
-  <si>
-    <t>Flight_Second_Test</t>
+    <t>Test_1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>One way</t>
+  </si>
+  <si>
+    <t>MONTERREY</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA</t>
+  </si>
+  <si>
+    <t>Test_2</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -460,227 +439,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA775C-E285-4133-A09C-4B3E0732D713}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95A458-48E6-40DF-A760-658141830EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46216950-5086-400E-BC29-1AE9825EEA59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACC7127D-CA10-4415-AB1E-B8CD0C7426B6}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>arrival</t>
   </si>
   <si>
-    <t>Test_1</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -75,13 +72,16 @@
     <t>CHIHUAHUA</t>
   </si>
   <si>
-    <t>Test_2</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Test_01</t>
+  </si>
+  <si>
+    <t>Test_02</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -482,21 +482,21 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
